--- a/Absence_template.xlsx
+++ b/Absence_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F489FF-86EC-4B90-8ED9-38789DAE0E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A0997-1509-47FE-AD31-A0685CCD5D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="15930" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="760" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -433,10 +433,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>45075</v>
+        <v>45106</v>
       </c>
       <c r="E2" s="2">
-        <v>45075</v>
+        <v>45106</v>
       </c>
     </row>
   </sheetData>

--- a/Absence_template.xlsx
+++ b/Absence_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A0997-1509-47FE-AD31-A0685CCD5D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179023FD-A789-4367-BBAB-414B923379B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="760" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -433,10 +433,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>45106</v>
+        <v>45167</v>
       </c>
       <c r="E2" s="2">
-        <v>45106</v>
+        <v>45167</v>
       </c>
     </row>
   </sheetData>

--- a/Absence_template.xlsx
+++ b/Absence_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179023FD-A789-4367-BBAB-414B923379B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CDAC9C-159D-421E-BC99-A4BE30BA3478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="1520" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -433,10 +433,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>45167</v>
+        <v>45198</v>
       </c>
       <c r="E2" s="2">
-        <v>45167</v>
+        <v>45198</v>
       </c>
     </row>
   </sheetData>
